--- a/results/econometric models/ARIMA.xlsx
+++ b/results/econometric models/ARIMA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">commodity</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t xml:space="preserve">Dubai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LNG</t>
   </si>
   <si>
     <t xml:space="preserve">US NatGas</t>
@@ -470,114 +473,148 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>0.489434870895701</v>
+        <v>3.87976460248995</v>
       </c>
       <c r="E5" t="n">
-        <v>0.180708472227036</v>
+        <v>0.432438611281991</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>10.0967629861635</v>
+        <v>0.489434870895701</v>
       </c>
       <c r="E6" t="n">
-        <v>0.354717909784055</v>
+        <v>0.180708472227036</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>11.7957169095158</v>
+        <v>10.0967629861635</v>
       </c>
       <c r="E7" t="n">
-        <v>0.360540234254753</v>
+        <v>0.354717909784055</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>12.1860422411431</v>
+        <v>11.7957169095158</v>
       </c>
       <c r="E8" t="n">
-        <v>0.35480932425236</v>
+        <v>0.360540234254753</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>11.7825708465326</v>
+        <v>12.1860422411431</v>
       </c>
       <c r="E9" t="n">
-        <v>0.342006015485074</v>
+        <v>0.35480932425236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="n">
-        <v>0.575848380012764</v>
+        <v>11.7825708465326</v>
       </c>
       <c r="E10" t="n">
-        <v>0.189024313945945</v>
+        <v>0.342006015485074</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.80022290603971</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.431428491828666</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.575848380012764</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.189024313945945</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="n">
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="n">
         <v>11.0946947263583</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E13" t="n">
         <v>0.386496851828081</v>
       </c>
     </row>

--- a/results/econometric models/ARIMA.xlsx
+++ b/results/econometric models/ARIMA.xlsx
@@ -1,79 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitaetstgallen-my.sharepoint.com/personal/ruben_ernst_student_unisg_ch/Documents/BA/commodities-pricing/results/econometric models/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_D85298903BB6537D31720693F6678F0F8AE55F93" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC57956D-CAE9-D840-B7E2-E934DAA81CD2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="25100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">commodity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">series</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">APSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">difference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 0, 0)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dubai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US NatGas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 0, 1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">log returns</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4, 0, 2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4, 0, 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 0, 2)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="18">
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>mae</t>
+  </si>
+  <si>
+    <t>mape</t>
+  </si>
+  <si>
+    <t>APSP</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>(1, 0, 0)</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>LNG</t>
+  </si>
+  <si>
+    <t>US NatGas</t>
+  </si>
+  <si>
+    <t>(1, 0, 1)</t>
+  </si>
+  <si>
+    <t>WTI</t>
+  </si>
+  <si>
+    <t>log returns</t>
+  </si>
+  <si>
+    <t>(4, 0, 2)</t>
+  </si>
+  <si>
+    <t>(4, 0, 3)</t>
+  </si>
+  <si>
+    <t>(2, 0, 2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -106,9 +113,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -390,14 +406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,7 +432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -424,14 +442,14 @@
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>10.0628836760547</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.308594336398612</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -441,14 +459,14 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>10.7499926358828</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.313495659797958</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>0.31349565979795802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -458,14 +476,14 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="n">
-        <v>9.55082165397292</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.276615263075415</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4">
+        <v>9.5508216539729194</v>
+      </c>
+      <c r="E4">
+        <v>0.27661526307541501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -475,14 +493,14 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
-        <v>3.87976460248995</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.432438611281991</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>3.8797646024899501</v>
+      </c>
+      <c r="E5">
+        <v>0.43243861128199101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -492,14 +510,14 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
-        <v>0.489434870895701</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.180708472227036</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="D6">
+        <v>0.48943487089570098</v>
+      </c>
+      <c r="E6">
+        <v>0.18070847222703601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -509,14 +527,14 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
-        <v>10.0967629861635</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.354717909784055</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="D7">
+        <v>10.096762986163499</v>
+      </c>
+      <c r="E7">
+        <v>0.35471790978405499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -526,14 +544,14 @@
       <c r="C8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>11.7957169095158</v>
       </c>
-      <c r="E8" t="n">
-        <v>0.360540234254753</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="E8">
+        <v>0.36054023425475301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -543,14 +561,14 @@
       <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="n">
-        <v>12.1860422411431</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9">
+        <v>12.186042241143101</v>
+      </c>
+      <c r="E9">
         <v>0.35480932425236</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -560,14 +578,14 @@
       <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>11.7825708465326</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.342006015485074</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="E10">
+        <v>0.34200601548507398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -577,14 +595,14 @@
       <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D11" t="n">
-        <v>3.80022290603971</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.431428491828666</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="D11">
+        <v>3.8002229060397101</v>
+      </c>
+      <c r="E11">
+        <v>0.43142849182866599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -594,14 +612,14 @@
       <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D12" t="n">
-        <v>0.575848380012764</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.189024313945945</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12">
+        <v>0.57584838001276395</v>
+      </c>
+      <c r="E12">
+        <v>0.18902431394594499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -611,15 +629,15 @@
       <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>11.0946947263583</v>
       </c>
-      <c r="E13" t="n">
-        <v>0.386496851828081</v>
+      <c r="E13">
+        <v>0.38649685182808102</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>